--- a/temp_classInfo.xlsx
+++ b/temp_classInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\classtable\ClasstableToIcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD984CB3-1579-4DBF-9FEC-B21B5AF24838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC98A64-10D0-499A-A514-1CEFECECBBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>创新设计及专利保护</t>
   </si>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>并将此区域文字清空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1877654</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1866554</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -194,12 +202,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,13 +505,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -526,7 +537,7 @@
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -555,8 +566,8 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>1877654</v>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -584,8 +595,8 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>1866554</v>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -599,7 +610,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -609,7 +620,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
@@ -619,7 +630,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -631,7 +642,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
@@ -643,7 +654,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
@@ -657,7 +668,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
@@ -671,7 +682,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
@@ -685,7 +696,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
@@ -697,7 +708,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
@@ -707,7 +718,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
@@ -717,7 +728,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L190">

--- a/temp_classInfo.xlsx
+++ b/temp_classInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\classtable\ClasstableToIcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC98A64-10D0-499A-A514-1CEFECECBBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14273ABE-6865-4AA9-9E84-65744438417C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1320" windowWidth="17280" windowHeight="9060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>创新设计及专利保护</t>
   </si>
@@ -56,9 +56,6 @@
   <si>
     <t>classTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekStatus</t>
   </si>
   <si>
     <t>classSerial</t>
@@ -505,7 +502,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -534,14 +531,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -567,15 +564,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -590,16 +587,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -637,7 +634,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -649,7 +646,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -664,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -678,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -692,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -703,7 +700,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
